--- a/data/s4/Aradas/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s4/Aradas/archetypes/pop_archetypes_transport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B312DB-EE4B-404E-90F0-D890B81A001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA122A-A426-4C47-BFA8-F252521CA920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>CO2km_max</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -256,10 +259,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -590,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,28 +1402,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>9999</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.214</v>
+      </c>
+      <c r="T10">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>999999</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>80</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>60</v>
+      </c>
+      <c r="AB10">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q16"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:I6 M2:XFD2 J2:J6 S4:T4 T4:T7 A10:L10 A11:XFD1048576 J1:XFD1 W4:XFD4 U3:V9">
+  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 U3:V9 S4:T4 T4:T7 A10:L10 A11:XFD1048576">
     <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1439,7 +1535,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:T3 W3:XFD3">
+  <conditionalFormatting sqref="O3:T3">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1454,12 +1550,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10:V10 S8:T9">
+  <conditionalFormatting sqref="S8:T9 S10:V10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:XFD10">
+  <conditionalFormatting sqref="W3:XFD10">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
